--- a/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
+++ b/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BBPPRTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DEBFF-EF90-4038-9856-5C954E6DA2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67D9E7-BF42-4CB9-AA54-8F4523DF4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Source:</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>We do not allow CCS retrofits before 2028, aligned with NREL's approach.</t>
+  </si>
+  <si>
+    <t>We already include all coal CCS retrofits projected by EPA as part of its 111 rules.</t>
+  </si>
+  <si>
+    <t>Projected coal retriements and retrofits cover all of the exisiting coal fleet between</t>
+  </si>
+  <si>
+    <t>2028 and 2035, so we do not allow any additional retrofits.</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +591,21 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +622,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H22"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,95 +2345,95 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
+++ b/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BBPPRTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Models\US\Models\eps-us\InputData\elec\BBPPRTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67D9E7-BF42-4CB9-AA54-8F4523DF4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044A0703-5029-44F0-AB81-97DA410ABD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12345" yWindow="1170" windowWidth="27360" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>nuclear</t>
   </si>
   <si>
-    <t>Max Potential Capacity (MW)</t>
-  </si>
-  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>2028 and 2035, so we do not allow any additional retrofits.</t>
+  </si>
+  <si>
+    <t>% of capacity available for retrofit</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,17 +550,17 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,42 +570,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2366,79 +2366,79 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>

--- a/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
+++ b/InputData/elec/BBPPRTY/BAU Ban Power Plant Retrofits This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\BBPPRTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\EPS Models\EU EPS\InputData\elec\BBPPRTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110B6C9-74C0-49E9-BE6A-2B50706FF589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F17E2C0-D048-4518-95D6-DE39D9AFD468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34665" yWindow="3195" windowWidth="19830" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="2085" windowWidth="22425" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -508,48 +508,48 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.81640625" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -567,17 +567,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -672,7 +672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2287,102 +2287,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2477,197 +2477,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
